--- a/BalanceSheet/PCG_bal.xlsx
+++ b/BalanceSheet/PCG_bal.xlsx
@@ -4593,10 +4593,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B34" s="0" t="n">
+        <v>40513000000.0</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>41984000000.0</v>
@@ -4722,10 +4720,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B35" s="0" t="n">
+        <v>40771000000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>42611000000.0</v>
